--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il15-Il2rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il15-Il2rb.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H2">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I2">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J2">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.452973</v>
       </c>
       <c r="O2">
-        <v>0.1197553672373143</v>
+        <v>0.1233263507762945</v>
       </c>
       <c r="P2">
-        <v>0.1197553672373143</v>
+        <v>0.1233263507762945</v>
       </c>
       <c r="Q2">
-        <v>1.551792739195667</v>
+        <v>1.004700707273667</v>
       </c>
       <c r="R2">
-        <v>13.966134652761</v>
+        <v>9.042306365463</v>
       </c>
       <c r="S2">
-        <v>0.04276704471125249</v>
+        <v>0.03813157736261931</v>
       </c>
       <c r="T2">
-        <v>0.04276704471125248</v>
+        <v>0.03813157736261931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H3">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I3">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J3">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.976237</v>
       </c>
       <c r="O3">
-        <v>0.522470407028605</v>
+        <v>0.5380499444317692</v>
       </c>
       <c r="P3">
-        <v>0.522470407028605</v>
+        <v>0.5380499444317693</v>
       </c>
       <c r="Q3">
-        <v>6.770183272578778</v>
+        <v>4.383322431227445</v>
       </c>
       <c r="R3">
-        <v>60.931649453209</v>
+        <v>39.449901881047</v>
       </c>
       <c r="S3">
-        <v>0.1865846665011634</v>
+        <v>0.1663609841036236</v>
       </c>
       <c r="T3">
-        <v>0.1865846665011634</v>
+        <v>0.1663609841036236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H4">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I4">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J4">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.153895</v>
       </c>
       <c r="O4">
-        <v>0.04068620478701045</v>
+        <v>0.0418994261307359</v>
       </c>
       <c r="P4">
-        <v>0.04068620478701045</v>
+        <v>0.0418994261307359</v>
       </c>
       <c r="Q4">
-        <v>0.5272127557238889</v>
+        <v>0.3413413500272222</v>
       </c>
       <c r="R4">
-        <v>4.744914801515001</v>
+        <v>3.072072150245</v>
       </c>
       <c r="S4">
-        <v>0.01452986015907836</v>
+        <v>0.0129549864963702</v>
       </c>
       <c r="T4">
-        <v>0.01452986015907836</v>
+        <v>0.0129549864963702</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H5">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I5">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J5">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3997936666666667</v>
+        <v>0.3632856666666666</v>
       </c>
       <c r="N5">
-        <v>1.199381</v>
+        <v>1.089857</v>
       </c>
       <c r="O5">
-        <v>0.3170880209470703</v>
+        <v>0.2967242786612004</v>
       </c>
       <c r="P5">
-        <v>0.3170880209470703</v>
+        <v>0.2967242786612004</v>
       </c>
       <c r="Q5">
-        <v>4.108833699424111</v>
+        <v>2.417318689474111</v>
       </c>
       <c r="R5">
-        <v>36.979503294817</v>
+        <v>21.755868205267</v>
       </c>
       <c r="S5">
-        <v>0.1132384951262586</v>
+        <v>0.09174490865833546</v>
       </c>
       <c r="T5">
-        <v>0.1132384951262586</v>
+        <v>0.09174490865833546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.961398</v>
       </c>
       <c r="I6">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J6">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.452973</v>
       </c>
       <c r="O6">
-        <v>0.1197553672373143</v>
+        <v>0.1233263507762945</v>
       </c>
       <c r="P6">
-        <v>0.1197553672373143</v>
+        <v>0.1233263507762945</v>
       </c>
       <c r="Q6">
         <v>0.3000391484726667</v>
@@ -821,10 +821,10 @@
         <v>2.700352336254</v>
       </c>
       <c r="S6">
-        <v>0.008269008710858963</v>
+        <v>0.01138743699389429</v>
       </c>
       <c r="T6">
-        <v>0.008269008710858963</v>
+        <v>0.01138743699389429</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.961398</v>
       </c>
       <c r="I7">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J7">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.976237</v>
       </c>
       <c r="O7">
-        <v>0.522470407028605</v>
+        <v>0.5380499444317692</v>
       </c>
       <c r="P7">
-        <v>0.522470407028605</v>
+        <v>0.5380499444317693</v>
       </c>
       <c r="Q7">
         <v>1.309015033258444</v>
@@ -883,10 +883,10 @@
         <v>11.781135299326</v>
       </c>
       <c r="S7">
-        <v>0.03607614795522423</v>
+        <v>0.04968127089805059</v>
       </c>
       <c r="T7">
-        <v>0.03607614795522423</v>
+        <v>0.0496812708980506</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.961398</v>
       </c>
       <c r="I8">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J8">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>0.153895</v>
       </c>
       <c r="O8">
-        <v>0.04068620478701045</v>
+        <v>0.0418994261307359</v>
       </c>
       <c r="P8">
-        <v>0.04068620478701045</v>
+        <v>0.0418994261307359</v>
       </c>
       <c r="Q8">
         <v>0.1019365939122222</v>
@@ -945,10 +945,10 @@
         <v>0.91742934521</v>
       </c>
       <c r="S8">
-        <v>0.002809348671019333</v>
+        <v>0.003868816940911184</v>
       </c>
       <c r="T8">
-        <v>0.002809348671019333</v>
+        <v>0.003868816940911184</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.961398</v>
       </c>
       <c r="I9">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J9">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3997936666666667</v>
+        <v>0.3632856666666666</v>
       </c>
       <c r="N9">
-        <v>1.199381</v>
+        <v>1.089857</v>
       </c>
       <c r="O9">
-        <v>0.3170880209470703</v>
+        <v>0.2967242786612004</v>
       </c>
       <c r="P9">
-        <v>0.3170880209470703</v>
+        <v>0.2967242786612004</v>
       </c>
       <c r="Q9">
-        <v>0.7944430549597777</v>
+        <v>0.721896815565111</v>
       </c>
       <c r="R9">
-        <v>7.149987494638</v>
+        <v>6.497071340085999</v>
       </c>
       <c r="S9">
-        <v>0.02189466466354227</v>
+        <v>0.02739827300932869</v>
       </c>
       <c r="T9">
-        <v>0.02189466466354227</v>
+        <v>0.02739827300932869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H10">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I10">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J10">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,22 +1057,22 @@
         <v>0.452973</v>
       </c>
       <c r="O10">
-        <v>0.1197553672373143</v>
+        <v>0.1233263507762945</v>
       </c>
       <c r="P10">
-        <v>0.1197553672373143</v>
+        <v>0.1233263507762945</v>
       </c>
       <c r="Q10">
-        <v>0.1214054711476667</v>
+        <v>0.1448474278616667</v>
       </c>
       <c r="R10">
-        <v>1.092649240329</v>
+        <v>1.303626850755</v>
       </c>
       <c r="S10">
-        <v>0.003345906371139588</v>
+        <v>0.005497419143131051</v>
       </c>
       <c r="T10">
-        <v>0.003345906371139588</v>
+        <v>0.005497419143131052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H11">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I11">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J11">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.976237</v>
       </c>
       <c r="O11">
-        <v>0.522470407028605</v>
+        <v>0.5380499444317692</v>
       </c>
       <c r="P11">
-        <v>0.522470407028605</v>
+        <v>0.5380499444317693</v>
       </c>
       <c r="Q11">
-        <v>0.5296695036667778</v>
+        <v>0.6319424033994444</v>
       </c>
       <c r="R11">
-        <v>4.767025533001</v>
+        <v>5.687481630595</v>
       </c>
       <c r="S11">
-        <v>0.01459756755740803</v>
+        <v>0.0239842178566137</v>
       </c>
       <c r="T11">
-        <v>0.01459756755740803</v>
+        <v>0.02398421785661371</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H12">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I12">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J12">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.153895</v>
       </c>
       <c r="O12">
-        <v>0.04068620478701045</v>
+        <v>0.0418994261307359</v>
       </c>
       <c r="P12">
-        <v>0.04068620478701045</v>
+        <v>0.0418994261307359</v>
       </c>
       <c r="Q12">
-        <v>0.04124681820388889</v>
+        <v>0.04921108964722223</v>
       </c>
       <c r="R12">
-        <v>0.371221363835</v>
+        <v>0.442899806825</v>
       </c>
       <c r="S12">
-        <v>0.001136752656309597</v>
+        <v>0.001867716881651121</v>
       </c>
       <c r="T12">
-        <v>0.001136752656309597</v>
+        <v>0.001867716881651121</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H13">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I13">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J13">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3997936666666667</v>
+        <v>0.3632856666666666</v>
       </c>
       <c r="N13">
-        <v>1.199381</v>
+        <v>1.089857</v>
       </c>
       <c r="O13">
-        <v>0.3170880209470703</v>
+        <v>0.2967242786612004</v>
       </c>
       <c r="P13">
-        <v>0.3170880209470703</v>
+        <v>0.2967242786612004</v>
       </c>
       <c r="Q13">
-        <v>0.3214571627681111</v>
+        <v>0.3485041783661111</v>
       </c>
       <c r="R13">
-        <v>2.893114464913</v>
+        <v>3.136537605295</v>
       </c>
       <c r="S13">
-        <v>0.008859284172177526</v>
+        <v>0.01322683854241948</v>
       </c>
       <c r="T13">
-        <v>0.008859284172177526</v>
+        <v>0.01322683854241948</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H14">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I14">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J14">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,22 +1305,22 @@
         <v>0.452973</v>
       </c>
       <c r="O14">
-        <v>0.1197553672373143</v>
+        <v>0.1233263507762945</v>
       </c>
       <c r="P14">
-        <v>0.1197553672373143</v>
+        <v>0.1233263507762945</v>
       </c>
       <c r="Q14">
-        <v>2.372059600870333</v>
+        <v>1.79984744793</v>
       </c>
       <c r="R14">
-        <v>21.348536407833</v>
+        <v>16.19862703137</v>
       </c>
       <c r="S14">
-        <v>0.06537340744406324</v>
+        <v>0.0683099172766498</v>
       </c>
       <c r="T14">
-        <v>0.06537340744406324</v>
+        <v>0.06830991727664981</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H15">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I15">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J15">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.976237</v>
       </c>
       <c r="O15">
-        <v>0.522470407028605</v>
+        <v>0.5380499444317692</v>
       </c>
       <c r="P15">
-        <v>0.522470407028605</v>
+        <v>0.5380499444317693</v>
       </c>
       <c r="Q15">
-        <v>10.34885511817522</v>
+        <v>7.852399858169999</v>
       </c>
       <c r="R15">
-        <v>93.13969606357701</v>
+        <v>70.67159872353</v>
       </c>
       <c r="S15">
-        <v>0.2852120250148093</v>
+        <v>0.2980234715734813</v>
       </c>
       <c r="T15">
-        <v>0.2852120250148093</v>
+        <v>0.2980234715734815</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H16">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I16">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J16">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,22 +1429,22 @@
         <v>0.153895</v>
       </c>
       <c r="O16">
-        <v>0.04068620478701045</v>
+        <v>0.0418994261307359</v>
       </c>
       <c r="P16">
-        <v>0.04068620478701045</v>
+        <v>0.0418994261307359</v>
       </c>
       <c r="Q16">
-        <v>0.8058937558661111</v>
+        <v>0.61148793195</v>
       </c>
       <c r="R16">
-        <v>7.253043802795</v>
+        <v>5.50339138755</v>
       </c>
       <c r="S16">
-        <v>0.02221024330060315</v>
+        <v>0.0232079058118034</v>
       </c>
       <c r="T16">
-        <v>0.02221024330060315</v>
+        <v>0.0232079058118034</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H17">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I17">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J17">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3997936666666667</v>
+        <v>0.3632856666666666</v>
       </c>
       <c r="N17">
-        <v>1.199381</v>
+        <v>1.089857</v>
       </c>
       <c r="O17">
-        <v>0.3170880209470703</v>
+        <v>0.2967242786612004</v>
       </c>
       <c r="P17">
-        <v>0.3170880209470703</v>
+        <v>0.2967242786612004</v>
       </c>
       <c r="Q17">
-        <v>6.280734648977889</v>
+        <v>4.330448702369999</v>
       </c>
       <c r="R17">
-        <v>56.526611840801</v>
+        <v>38.97403832132999</v>
       </c>
       <c r="S17">
-        <v>0.1730955769850919</v>
+        <v>0.1643542584511167</v>
       </c>
       <c r="T17">
-        <v>0.1730955769850919</v>
+        <v>0.1643542584511168</v>
       </c>
     </row>
   </sheetData>
